--- a/media/excel_files/Product.xlsx
+++ b/media/excel_files/Product.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -28,40 +28,25 @@
     <t>is_active</t>
   </si>
   <si>
-    <t>Veg Burger</t>
-  </si>
-  <si>
-    <t>French Fries</t>
-  </si>
-  <si>
-    <t>Vanilla Ice Cream</t>
-  </si>
-  <si>
     <t>Cold Coffee</t>
   </si>
   <si>
     <t>Chapati Bhaji</t>
   </si>
   <si>
-    <t>Puran Poli</t>
-  </si>
-  <si>
     <t>Mango Ice cream</t>
   </si>
   <si>
-    <t>Water</t>
+    <t>Bundhi</t>
+  </si>
+  <si>
+    <t>60.00</t>
   </si>
   <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>100.00</t>
-  </si>
-  <si>
     <t>70.00</t>
-  </si>
-  <si>
-    <t>60.00</t>
   </si>
 </sst>
 </file>
@@ -419,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,13 +426,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -455,13 +440,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -469,13 +454,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -483,71 +468,15 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="b">
         <v>1</v>
       </c>
     </row>
